--- a/SD_SALES PROCESSING.xlsx
+++ b/SD_SALES PROCESSING.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\예진\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6708F2BF-9E4A-421A-A3B2-964B08E3817D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25116E9-9E35-4B4A-AEE9-320652A214C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{AC205216-49C5-4601-8040-8943D371C854}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" activeTab="1" xr2:uid="{AC205216-49C5-4601-8040-8943D371C854}"/>
   </bookViews>
   <sheets>
     <sheet name="SEARCH" sheetId="3" r:id="rId1"/>
-    <sheet name="조직" sheetId="2" r:id="rId2"/>
-    <sheet name="순서" sheetId="4" r:id="rId3"/>
+    <sheet name="상세 화면" sheetId="7" r:id="rId2"/>
+    <sheet name="SALES ORDER" sheetId="5" r:id="rId3"/>
+    <sheet name="BILLING DOCUMENT" sheetId="6" r:id="rId4"/>
+    <sheet name="조직" sheetId="2" r:id="rId5"/>
+    <sheet name="순서" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="193">
   <si>
     <t>구매 그룹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,6 +359,458 @@
   </si>
   <si>
     <t>Division</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수입력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO 생성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇 개를</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제까지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 필수</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dis. Cha</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Availablity (요청한 일자에 물건을 가져다 줄 수 있는지)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FI에 Posting될 계정 (상품매출 or 제품매출 등)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">자동결정 &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="KoPub돋움체 Medium"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사전에 다 세팅이 되어 있어야 함</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.VAO3에서 주문번호 8 검색</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE11 VBFA에들어가서 8번 검색</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBFA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doc. Flow에 관한 테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBFA테이블 이용 - 선행 문서필드에 세일즈 오더 넘버를 넣고(=8번) 후속 문서 중에서 DELIVERY NUMBER를 찾는다. 딜리버리는 구분자(J) 넘버 80000001.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>위에서 찾은 딜리버리 넘버를 다시 선행문서 필드에 넣고 후속 문서 중에서 머테리얼 타큐먼트(구분자 :R)를 찾는다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>위에서 찾은 Material Document(4900000122), SubsIT(아이템 1번,2번), YEAR(2015)를 가지고 MSEG 테이블에 가서 수량하고 금액을 계산한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES ORDER 넘버로BILLING DOCUMENT를 찾는 방법</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBFA테이블 이용 - 선행 문서필드에 세일즈 오더 넘버를 넣고(=8번) 후속 문서 중에서 DELIVERY NUMBER를 찾는다. 딜리버리는 구분자(J) 넘버 8000001.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위에서 찾은 딜리버리 넘버를 다시 선행문서 필드에 넣고 후속 문서 중에서 인보이스 다큐먼트를 찾는다(빌링다큐먼트) - 구분자 M </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>위에서 찾은 인보이스 넘버와 아이템 넘버를 가지고 VBRP 테이블에서 수량하고 금액을 찾는다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HEADER </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSEG</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBRP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케쥴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>선언시 필드명</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application button</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고처리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고취소</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크박스</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Doc. No.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBAP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBELN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOTSPOT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALV button</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>POSNR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBAK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KUNNR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUBLE CLICK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchasing No.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Requisition</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vendor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material description</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stroage Location</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Po Quantity</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open PO Q'ty</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR Processing Qty</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net price</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO Amount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR Doc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Year</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR Q'TY</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR Amount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV Doc.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV Amount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNA1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATNR</t>
+  </si>
+  <si>
+    <t>MAKT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAKTX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAKT-SPRAS = SY-LANGU</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>년도 가장최근</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀고정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO Quantity</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KWMENG</t>
+  </si>
+  <si>
+    <t>Open SO Q'ty</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO Quantity - Good Issue Qty</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO Processing Qty</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input mode (Default : Open SO)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VRKME</t>
+  </si>
+  <si>
+    <t>NETPR</t>
+  </si>
+  <si>
+    <t>WAERK</t>
+  </si>
+  <si>
+    <t>SO Amount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO Quantity * Net price</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delivery Doc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIPS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GI Doc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBLNR</t>
+  </si>
+  <si>
+    <t>가장 최근 문서번호가 보이도록 /
+여러건이면 'MULT'라고 입력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJAHR</t>
+  </si>
+  <si>
+    <t>Movement type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BWART</t>
+  </si>
+  <si>
+    <t>GI Q'TY</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENGE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GI Amount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMBTR</t>
+  </si>
+  <si>
+    <t>Billing Doc.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Billing Amount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NETWR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Order로 DOCUMENT 찾는 방법 - Sales Order 필드에서</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES ORDER 넘버로 MATERIAL DOCUMENT 찾는 방법</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>위에서 찾은 머테리얼 다큐먼트, 아이템(1번,2번), YEAR(2015)를 가지고 MSEG 테이블에 가서 수량하고 금액을 계산한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>*참고사항</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EKBE에서 VGABE = 1이면 입고 / 2이면 송장</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EKBE  문서테이블</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제구분자 EKPO-loekz = 'L'</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES ORDER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 딜리버리 안된것 10대라고 한다면 -&gt; OPEN된것 중 원하는 수량을 넣고 GODD ISSUE까지 진행되도록.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산식</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +818,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,8 +871,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="KoPub돋움체 Medium"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2"/>
+      <name val="KoPub돋움체 Medium"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="KoPub돋움체 Medium"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,8 +948,86 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2E8FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -650,6 +1204,236 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -658,7 +1442,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,60 +1513,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -825,6 +1555,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,20 +1582,332 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -860,6 +1917,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFEE5"/>
+      <color rgb="FFFFE5E5"/>
+      <color rgb="FFFFD9D9"/>
+      <color rgb="FFF2E8FC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -872,6 +1937,2156 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>392112</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A52A22-B422-48A5-BD99-5C0131557120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704851" y="239714"/>
+          <a:ext cx="3721099" cy="2490508"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>212976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>280755</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0526444-5FCD-45CD-B762-4C302FF4614D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4768850" y="212976"/>
+          <a:ext cx="4165368" cy="2530224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>24935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>262186</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB51791-F5D7-4BCD-925F-7054EE791AF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9613900" y="239248"/>
+          <a:ext cx="6726486" cy="2506606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>654051</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>82576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45434</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84CFD49A-5D3D-4059-8C43-6D2DA4B0A1B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="654051" y="3940201"/>
+          <a:ext cx="4610100" cy="2005971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>26924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>206693</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>17033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DDFAB97-DE46-4D58-B781-2E5677B52CEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692150" y="6022912"/>
+          <a:ext cx="6139181" cy="1990359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>645749</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>490887</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D276969D-63D3-4E44-9F38-E727307D4325}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7503749" y="3883026"/>
+          <a:ext cx="2435938" cy="3922713"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>3959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>639762</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>51226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C091615-36E4-4797-88D5-8FE38F4BAB68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692150" y="8786009"/>
+          <a:ext cx="7219950" cy="2380892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>354013</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>137368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{804002B0-DFAE-4972-9272-D1918F1710F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323851" y="11310939"/>
+          <a:ext cx="5969000" cy="2137616"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571092</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D38DD5-CA3D-4D59-8205-6310ED1981F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743292" y="9967913"/>
+          <a:ext cx="2178458" cy="3553361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>249486</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>6294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D90154E-50E7-44B9-9226-A0006E8D0F9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="4067175"/>
+          <a:ext cx="6726486" cy="2506607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>470272</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>636836</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B816D87A-B5D7-4616-9F98-EE16E8161FDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9385672" y="9248775"/>
+          <a:ext cx="7938964" cy="2944813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>147639</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>559304</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>31516</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3767D289-AC0A-42A9-B8BC-10E84F3412B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086477" y="9877425"/>
+          <a:ext cx="411665" cy="1365016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>588963</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>506413</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="직사각형 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FECA79-DBE4-443A-8037-CA6653206883}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4584701" y="10567989"/>
+          <a:ext cx="1212850" cy="319087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>557214</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="직사각형 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B92C4B-6302-4757-91E9-0EFDA2118A31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105526" y="10487025"/>
+          <a:ext cx="390526" cy="333376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>18024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>487363</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>153286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A0B3892-B48D-4F62-9F16-C74009C88BDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698501" y="14157887"/>
+          <a:ext cx="5118100" cy="2635574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>5709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>410673</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57590C5F-6068-4BFF-B5EE-4EC40E66D98A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="654050" y="16931634"/>
+          <a:ext cx="12177224" cy="1495799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466723</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="연결선: 꺾임 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391DC89F-4C12-4DBB-8001-23B305E221F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6946106" y="2726533"/>
+          <a:ext cx="914400" cy="5776911"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>506413</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>16670</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="연결선: 꺾임 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E2F5DF-B101-4EF3-BC4E-CB15AABF909E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5797551" y="9839325"/>
+          <a:ext cx="3651249" cy="888208"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="직사각형 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F35C79-ADE7-47E2-9884-96E94B79FCD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200526" y="6072188"/>
+          <a:ext cx="628650" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>65087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359A37E7-5B0F-456D-883D-3324AA718020}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724275" y="4725988"/>
+          <a:ext cx="3086100" cy="1049337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>번을 입력하면 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>Foll</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>On Doc - Follwing Doc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>로 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>80000001</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>이 생성된것 확인 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>또한 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>SubCt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>가 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>J(Delivery)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>인것 확인 가능</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="KoPub돋움체 Medium" panose="02020603020101020101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="직사각형 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1262627A-E85A-4C63-AE8D-6DA4A750F40B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5214938" y="6076950"/>
+          <a:ext cx="304800" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="직사각형 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41524C17-DEBD-437D-BFB3-9AA8009DB9B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10291762" y="5095876"/>
+          <a:ext cx="1876426" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>279770</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>157161</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="직사각형 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD9934E3-918A-4734-B3DD-A19790CE5175}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9457108" y="9744075"/>
+          <a:ext cx="2468191" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>61308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBD9BFE-7393-49CE-93D2-5E8D0DA95FFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1557363"/>
+          <a:ext cx="4584700" cy="2004383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12699</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>347980</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3168E2BB-A692-4BE6-A585-ECAD4CD905DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect b="18897"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660399" y="2835211"/>
+          <a:ext cx="6164581" cy="1612964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647335</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>492473</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C24D23-AB3D-4F7E-BC27-927C4993810C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect b="14251"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7124335" y="1166814"/>
+          <a:ext cx="2435938" cy="3362324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6349</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>184149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>255835</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{205732D9-40CE-45F7-B808-DE1EA0C4E804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10293349" y="1684337"/>
+          <a:ext cx="6726486" cy="2505019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3574CA0D-340D-450D-9B79-61233917CE5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="654050" y="6442075"/>
+          <a:ext cx="8642350" cy="1330162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>30437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DE3F7D-1066-4952-AEFF-5FFE1116D507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692150" y="7960000"/>
+          <a:ext cx="5289550" cy="1971344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>620712</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>125412</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>15281</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781D631E-0E17-48F0-B15E-D508DAECA939}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7745412" y="4845980"/>
+          <a:ext cx="2743200" cy="4337114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>207491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>58093</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>18695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C166A80-A9B7-49A9-95D6-DEF0B8BD2E11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="11351741"/>
+          <a:ext cx="11068993" cy="1687628"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>16670</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>347666</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="연결선: 꺾임 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C6C49D-AAC4-499F-AEE1-1BD0EB029551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6859194" y="815579"/>
+          <a:ext cx="895347" cy="5512596"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>354011</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B88851-51E8-4708-BC3F-484BB920FBBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10069511" y="3055937"/>
+          <a:ext cx="2012952" cy="173038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="직사각형 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8011515F-AC19-487C-96C5-292F4D91E2E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4243388" y="4019550"/>
+          <a:ext cx="614362" cy="461963"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60324</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="직사각형 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA025BFE-DD01-49B6-9637-92747F68E554}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5241924" y="4030598"/>
+          <a:ext cx="306389" cy="465202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>55561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="직사각형 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FAE700E-9C46-45CF-9E1B-786C52E5C8C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3902075" y="6222999"/>
+          <a:ext cx="1069975" cy="163513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68263</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>54250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1589</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>39962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="직사각형 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642B83F0-99D0-4CDF-993E-9B0A7E5247E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="715963" y="8055250"/>
+          <a:ext cx="1876426" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11114</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>151605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>144737</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="연결선: 꺾임 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FECE0D-F26B-4E1D-AE29-FDAD2565DC74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2601914" y="6152355"/>
+          <a:ext cx="1309686" cy="1826695"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 44909"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1224,7 +4439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B746F2D3-9DC2-4E31-AB0A-11B78EE1D1E5}">
   <dimension ref="B3:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -1244,78 +4459,78 @@
   <sheetData>
     <row r="3" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="5"/>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="67" t="s">
+      <c r="M4" s="45" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="61"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="3"/>
       <c r="K5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="61"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="3"/>
       <c r="K6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
     </row>
     <row r="7" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="61"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="3"/>
-      <c r="K7" s="68" t="s">
+      <c r="K7" s="46" t="s">
         <v>70</v>
       </c>
       <c r="L7" s="6"/>
@@ -1323,18 +4538,18 @@
     </row>
     <row r="8" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="4"/>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="61"/>
+      <c r="H8" s="43"/>
       <c r="I8" s="3"/>
-      <c r="K8" s="68" t="s">
+      <c r="K8" s="46" t="s">
         <v>72</v>
       </c>
       <c r="L8" s="6"/>
@@ -1342,96 +4557,96 @@
     </row>
     <row r="9" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="9"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="59"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="2"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G10" s="55"/>
-      <c r="K10" s="66"/>
+      <c r="G10" s="37"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="5"/>
-      <c r="K11" s="69" t="s">
+      <c r="K11" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="69" t="s">
+      <c r="M11" s="47" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="61"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="3"/>
       <c r="K12" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="70" t="s">
+      <c r="L12" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="M12" s="61" t="s">
+      <c r="M12" s="43" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="4"/>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58" t="s">
+      <c r="D13" s="39"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="61"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="3"/>
       <c r="K13" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
     </row>
     <row r="14" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="61"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="3"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -1439,12 +4654,12 @@
     </row>
     <row r="15" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="9"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="59"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="2"/>
     </row>
   </sheetData>
@@ -1458,11 +4673,1161 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212DD08B-9EEE-4240-88DC-712D8491FB7C}">
+  <dimension ref="B5:AJ58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.265625" defaultRowHeight="13.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.06640625" style="93" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" style="93" customWidth="1"/>
+    <col min="3" max="3" width="20.265625" style="93"/>
+    <col min="4" max="4" width="12" style="93" customWidth="1"/>
+    <col min="5" max="5" width="10.06640625" style="93" customWidth="1"/>
+    <col min="6" max="6" width="16.06640625" style="93" customWidth="1"/>
+    <col min="7" max="7" width="13.796875" style="93" customWidth="1"/>
+    <col min="8" max="8" width="30.796875" style="93" customWidth="1"/>
+    <col min="9" max="9" width="16" style="93" customWidth="1"/>
+    <col min="10" max="10" width="6.9296875" style="93" customWidth="1"/>
+    <col min="11" max="11" width="20.265625" style="93"/>
+    <col min="12" max="12" width="4.06640625" style="93" customWidth="1"/>
+    <col min="13" max="31" width="20.265625" style="93"/>
+    <col min="32" max="32" width="20.53125" style="93" customWidth="1"/>
+    <col min="33" max="16384" width="20.265625" style="93"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="136" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="161" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="151" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="160" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="125" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="150" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="126" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="N11" s="137" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="121"/>
+      <c r="C12" s="121" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="124" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+    </row>
+    <row r="13" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="108">
+        <v>1</v>
+      </c>
+      <c r="C13" s="158" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="115" t="str">
+        <f>CONCATENATE(D13,"-",E13)</f>
+        <v>VBAP-VBELN</v>
+      </c>
+      <c r="G13" s="115"/>
+      <c r="H13" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="105"/>
+      <c r="K13" s="151" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="108">
+        <v>2</v>
+      </c>
+      <c r="C14" s="158" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="115" t="str">
+        <f t="shared" ref="F14:F40" si="0">CONCATENATE(D14,"-",E14)</f>
+        <v>VBAP-POSNR</v>
+      </c>
+      <c r="G14" s="115"/>
+      <c r="H14" s="108"/>
+    </row>
+    <row r="15" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="108">
+        <v>3</v>
+      </c>
+      <c r="C15" s="159" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>VBAK-KUNNR</v>
+      </c>
+      <c r="G15" s="115"/>
+      <c r="H15" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="105"/>
+      <c r="K15" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" s="105"/>
+      <c r="M15" s="147" t="s">
+        <v>129</v>
+      </c>
+      <c r="N15" s="148" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="148" t="s">
+        <v>130</v>
+      </c>
+      <c r="P15" s="148" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q15" s="148" t="s">
+        <v>131</v>
+      </c>
+      <c r="R15" s="148" t="s">
+        <v>132</v>
+      </c>
+      <c r="S15" s="148" t="s">
+        <v>67</v>
+      </c>
+      <c r="T15" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="U15" s="148" t="s">
+        <v>64</v>
+      </c>
+      <c r="V15" s="148" t="s">
+        <v>134</v>
+      </c>
+      <c r="W15" s="148" t="s">
+        <v>135</v>
+      </c>
+      <c r="X15" s="148" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y15" s="148" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z15" s="148" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA15" s="148" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB15" s="148" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC15" s="148" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD15" s="148" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE15" s="148" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF15" s="148" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG15" s="148" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH15" s="148" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI15" s="148" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ15" s="149" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B16" s="108">
+        <v>4</v>
+      </c>
+      <c r="C16" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>KNA1-NAME1</v>
+      </c>
+      <c r="G16" s="115"/>
+      <c r="H16" s="108"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="144">
+        <v>4151503114</v>
+      </c>
+      <c r="N16" s="145">
+        <v>10</v>
+      </c>
+      <c r="O16" s="145"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="145"/>
+      <c r="R16" s="145"/>
+      <c r="S16" s="145"/>
+      <c r="T16" s="145"/>
+      <c r="U16" s="145"/>
+      <c r="V16" s="145"/>
+      <c r="W16" s="145"/>
+      <c r="X16" s="145"/>
+      <c r="Y16" s="145"/>
+      <c r="Z16" s="145"/>
+      <c r="AA16" s="145"/>
+      <c r="AB16" s="145"/>
+      <c r="AC16" s="145"/>
+      <c r="AD16" s="145">
+        <v>5000007984</v>
+      </c>
+      <c r="AE16" s="145">
+        <v>2020</v>
+      </c>
+      <c r="AF16" s="145"/>
+      <c r="AG16" s="145"/>
+      <c r="AH16" s="145"/>
+      <c r="AI16" s="145"/>
+      <c r="AJ16" s="146"/>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B17" s="108">
+        <v>5</v>
+      </c>
+      <c r="C17" s="158" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="108" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>VBAP-MATNR</v>
+      </c>
+      <c r="G17" s="115"/>
+      <c r="H17" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="139"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="104">
+        <v>5000007984</v>
+      </c>
+      <c r="AE17" s="104">
+        <v>2020</v>
+      </c>
+      <c r="AF17" s="104"/>
+      <c r="AG17" s="104"/>
+      <c r="AH17" s="104">
+        <v>5105606719</v>
+      </c>
+      <c r="AI17" s="104">
+        <v>2020</v>
+      </c>
+      <c r="AJ17" s="140"/>
+    </row>
+    <row r="18" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="108">
+        <v>6</v>
+      </c>
+      <c r="C18" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>MAKT-MAKTX</v>
+      </c>
+      <c r="G18" s="115"/>
+      <c r="H18" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" s="105"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="142"/>
+      <c r="Q18" s="142"/>
+      <c r="R18" s="142"/>
+      <c r="S18" s="142"/>
+      <c r="T18" s="142"/>
+      <c r="U18" s="142"/>
+      <c r="V18" s="142"/>
+      <c r="W18" s="142"/>
+      <c r="X18" s="142"/>
+      <c r="Y18" s="142"/>
+      <c r="Z18" s="142"/>
+      <c r="AA18" s="142"/>
+      <c r="AB18" s="142"/>
+      <c r="AC18" s="142"/>
+      <c r="AD18" s="142"/>
+      <c r="AE18" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF18" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG18" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH18" s="142"/>
+      <c r="AI18" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ18" s="143" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="108">
+        <v>7</v>
+      </c>
+      <c r="C19" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G19" s="115"/>
+      <c r="H19" s="108"/>
+      <c r="M19" s="138" t="s">
+        <v>156</v>
+      </c>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="138"/>
+      <c r="Q19" s="138"/>
+      <c r="R19" s="138"/>
+    </row>
+    <row r="20" spans="2:36" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="108">
+        <v>8</v>
+      </c>
+      <c r="C20" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G20" s="115"/>
+      <c r="H20" s="108"/>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B21" s="108">
+        <v>9</v>
+      </c>
+      <c r="C21" s="158" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>VBAP-KWMENG</v>
+      </c>
+      <c r="G21" s="115"/>
+      <c r="H21" s="108"/>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B22" s="108">
+        <v>10</v>
+      </c>
+      <c r="C22" s="156" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G22" s="115"/>
+      <c r="H22" s="108" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B23" s="108">
+        <v>11</v>
+      </c>
+      <c r="C23" s="156" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G23" s="115"/>
+      <c r="H23" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" s="93" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B24" s="108">
+        <v>12</v>
+      </c>
+      <c r="C24" s="158" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="108" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>VBAP-VRKME</v>
+      </c>
+      <c r="G24" s="115"/>
+      <c r="H24" s="108"/>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B25" s="108">
+        <v>13</v>
+      </c>
+      <c r="C25" s="158" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>VBAP-NETPR</v>
+      </c>
+      <c r="G25" s="115"/>
+      <c r="H25" s="108"/>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B26" s="108">
+        <v>14</v>
+      </c>
+      <c r="C26" s="158" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="114" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>VBAP-WAERK</v>
+      </c>
+      <c r="G26" s="115"/>
+      <c r="H26" s="108"/>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B27" s="108">
+        <v>15</v>
+      </c>
+      <c r="C27" s="156" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G27" s="115"/>
+      <c r="H27" s="108" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="109"/>
+      <c r="C28" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="117" t="str">
+        <f t="shared" si="0"/>
+        <v>LIPS-VBELN</v>
+      </c>
+      <c r="G28" s="117"/>
+      <c r="H28" s="109"/>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B29" s="110">
+        <v>16</v>
+      </c>
+      <c r="C29" s="152" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="110" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="110" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>MSEG-MBLNR</v>
+      </c>
+      <c r="G29" s="62"/>
+      <c r="H29" s="122" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B30" s="78"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="119"/>
+    </row>
+    <row r="31" spans="2:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="78"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="119"/>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B32" s="78"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="119"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="78"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="119"/>
+    </row>
+    <row r="34" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="111"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="123"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="108">
+        <v>17</v>
+      </c>
+      <c r="C35" s="155" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="114" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v>MSEG-MJAHR</v>
+      </c>
+      <c r="G35" s="120"/>
+      <c r="H35" s="121"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="108">
+        <v>18</v>
+      </c>
+      <c r="C36" s="155" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="108" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>MSEG-BWART</v>
+      </c>
+      <c r="G36" s="115"/>
+      <c r="H36" s="108"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="108">
+        <v>19</v>
+      </c>
+      <c r="C37" s="155" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>MSEG-MENGE</v>
+      </c>
+      <c r="G37" s="115"/>
+      <c r="H37" s="108"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="108">
+        <v>20</v>
+      </c>
+      <c r="C38" s="155" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>MSEG-DMBTR</v>
+      </c>
+      <c r="G38" s="115"/>
+      <c r="H38" s="108"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="108">
+        <v>21</v>
+      </c>
+      <c r="C39" s="156" t="s">
+        <v>180</v>
+      </c>
+      <c r="D39" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="115" t="str">
+        <f t="shared" si="0"/>
+        <v>VBRP-VBELN</v>
+      </c>
+      <c r="G39" s="115"/>
+      <c r="H39" s="108"/>
+    </row>
+    <row r="40" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="112">
+        <v>23</v>
+      </c>
+      <c r="C40" s="157" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" s="116" t="str">
+        <f t="shared" si="0"/>
+        <v>VBRP-NETWR</v>
+      </c>
+      <c r="G40" s="116"/>
+      <c r="H40" s="112"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="105"/>
+    </row>
+    <row r="42" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="2:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="133" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="134"/>
+      <c r="D43" s="135"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="19"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="21"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105">
+        <v>4900000122</v>
+      </c>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="19"/>
+    </row>
+    <row r="51" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="21"/>
+    </row>
+    <row r="53" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="23"/>
+    </row>
+    <row r="54" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="130" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="131"/>
+      <c r="D55" s="132"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="105"/>
+      <c r="D56" s="21"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="103"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="105"/>
+      <c r="D57" s="21"/>
+    </row>
+    <row r="58" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" s="128"/>
+      <c r="D58" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="H29:H34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854CC228-F11F-4373-92BF-2BE90E81CAEE}">
+  <dimension ref="B2:P67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R68" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="9.06640625" style="1"/>
+    <col min="4" max="4" width="10.59765625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="93"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B17" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B19" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="97"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B20" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+    </row>
+    <row r="21" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E40A23-D514-45F7-B675-EEA0B75403BB}">
+  <dimension ref="B2:Q53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B2" s="100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B3" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="77"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B4" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="77"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B5" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="77"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B8" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B30" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B53" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="96"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="96"/>
+      <c r="L53" s="96"/>
+      <c r="M53" s="96"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571201C3-2F66-422E-8532-1426A8B466AD}">
-  <dimension ref="B1:I34"/>
+  <dimension ref="B1:K34"/>
   <sheetViews>
     <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.35"/>
@@ -1476,8 +5841,9 @@
     <col min="7" max="7" width="2.796875" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.796875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="1"/>
+    <col min="10" max="10" width="12.73046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="41.265625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1493,10 +5859,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="72" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1513,8 +5879,8 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="34"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="4" t="s">
         <v>38</v>
       </c>
@@ -1529,8 +5895,8 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="34"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="14" t="s">
         <v>35</v>
       </c>
@@ -1545,8 +5911,8 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="34"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
@@ -1561,8 +5927,8 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="34"/>
-      <c r="C7" s="41"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
@@ -1577,8 +5943,8 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="34"/>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="69" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -1589,8 +5955,8 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="34"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1602,8 +5968,8 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="35"/>
-      <c r="C10" s="38"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
@@ -1624,116 +5990,182 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="24" t="s">
+    <row r="21" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="2:11" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="33" t="s">
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="H22" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="34"/>
-      <c r="C24" s="20" t="s">
+      <c r="H23" s="63"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="63"/>
+      <c r="C24" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="34"/>
-      <c r="C25" s="20" t="s">
+      <c r="H24" s="63"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="63"/>
+      <c r="C25" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="34"/>
-      <c r="C26" s="20" t="s">
+      <c r="H25" s="63"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="63"/>
+      <c r="C26" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="21"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="35"/>
-      <c r="C27" s="22" t="s">
+      <c r="H26" s="63"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="64"/>
+      <c r="C27" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="27" t="s">
+      <c r="H27" s="63"/>
+      <c r="I27" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H28" s="63"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="30" t="s">
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B30" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="66"/>
       <c r="E30" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="31"/>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B31" s="60"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="31"/>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B32" s="60"/>
       <c r="C32" s="4"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="31"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="32"/>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="61"/>
+      <c r="C34" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="23"/>
+      <c r="D34" s="68"/>
       <c r="E34" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="H22:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="I22:I26"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="B30:B34"/>
@@ -1756,7 +6188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7B739F-ECC2-48F6-AE17-1AED0CFEED9B}">
   <dimension ref="B2:D16"/>
   <sheetViews>
@@ -1766,133 +6198,133 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="42"/>
-    <col min="2" max="2" width="49.33203125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="11.46484375" style="42" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="42"/>
+    <col min="1" max="1" width="9.06640625" style="24"/>
+    <col min="2" max="2" width="49.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" style="24" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="31" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="27" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SD_SALES PROCESSING.xlsx
+++ b/SD_SALES PROCESSING.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\예진\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B9C1DB-DF86-4FE8-9177-958B40A171D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CDE76F-0EC7-4BA0-836B-113783552A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" firstSheet="1" activeTab="1" xr2:uid="{AC205216-49C5-4601-8040-8943D371C854}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" firstSheet="1" activeTab="4" xr2:uid="{AC205216-49C5-4601-8040-8943D371C854}"/>
   </bookViews>
   <sheets>
     <sheet name="SEARCH" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="194">
   <si>
     <t>구매 그룹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,10 +542,6 @@
   </si>
   <si>
     <t>MAKT</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAKTX</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1342,16 +1338,24 @@
   <si>
     <t>601</t>
   </si>
+  <si>
+    <t>MAKT (Materal text table) = SY_LANGU (Language key)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARKTX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -2093,6 +2097,267 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2106,6 +2371,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2114,18 +2427,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2197,303 +2498,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7999,6 +8003,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>49098</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647493</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>81300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8844EC-0856-4904-90F6-4C3226FB90EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7217397" y="343685"/>
+          <a:ext cx="7044955" cy="2609845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8321,10 +8369,10 @@
   <sheetData>
     <row r="3" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="74"/>
+      <c r="C4" s="161"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
@@ -8435,10 +8483,10 @@
       <c r="K10" s="38"/>
     </row>
     <row r="11" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="163"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
@@ -8538,981 +8586,984 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212DD08B-9EEE-4240-88DC-712D8491FB7C}">
   <dimension ref="B2:AG54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M12" sqref="M12:AG14"/>
+      <selection pane="topRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.265625" defaultRowHeight="13.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.06640625" style="108" customWidth="1"/>
-    <col min="2" max="2" width="12.796875" style="108" customWidth="1"/>
-    <col min="3" max="3" width="20.265625" style="108"/>
-    <col min="4" max="4" width="12" style="108" customWidth="1"/>
-    <col min="5" max="5" width="10.06640625" style="108" customWidth="1"/>
-    <col min="6" max="6" width="16.06640625" style="108" customWidth="1"/>
-    <col min="7" max="7" width="11.46484375" style="108" customWidth="1"/>
-    <col min="8" max="8" width="32.3984375" style="108" customWidth="1"/>
-    <col min="9" max="9" width="16" style="108" customWidth="1"/>
-    <col min="10" max="10" width="6.9296875" style="108" customWidth="1"/>
-    <col min="11" max="11" width="20.265625" style="108"/>
-    <col min="12" max="12" width="4.06640625" style="108" customWidth="1"/>
-    <col min="13" max="13" width="13.1328125" style="108" customWidth="1"/>
-    <col min="14" max="14" width="9.06640625" style="108" customWidth="1"/>
-    <col min="15" max="15" width="11.796875" style="108" customWidth="1"/>
-    <col min="16" max="16" width="21" style="108" customWidth="1"/>
-    <col min="17" max="17" width="7.9296875" style="108" customWidth="1"/>
-    <col min="18" max="18" width="16.86328125" style="108" customWidth="1"/>
-    <col min="19" max="19" width="12.1328125" style="109" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" style="110" customWidth="1"/>
-    <col min="21" max="21" width="16.1328125" style="108" customWidth="1"/>
-    <col min="22" max="22" width="5.06640625" style="108" customWidth="1"/>
-    <col min="23" max="23" width="9" style="108" customWidth="1"/>
-    <col min="24" max="24" width="9.53125" style="108" customWidth="1"/>
-    <col min="25" max="25" width="12.06640625" style="111" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" style="108" customWidth="1"/>
-    <col min="27" max="27" width="12.265625" style="108" customWidth="1"/>
-    <col min="28" max="28" width="6.9296875" style="108" customWidth="1"/>
-    <col min="29" max="29" width="14.19921875" style="108" customWidth="1"/>
-    <col min="30" max="30" width="9.33203125" style="111" customWidth="1"/>
-    <col min="31" max="31" width="11.265625" style="108" customWidth="1"/>
-    <col min="32" max="32" width="12.33203125" style="108" customWidth="1"/>
-    <col min="33" max="33" width="13.1328125" style="112" customWidth="1"/>
-    <col min="34" max="16384" width="20.265625" style="108"/>
+    <col min="1" max="1" width="8.06640625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" style="73" customWidth="1"/>
+    <col min="3" max="3" width="20.265625" style="73"/>
+    <col min="4" max="4" width="12" style="73" customWidth="1"/>
+    <col min="5" max="5" width="10.06640625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="16.06640625" style="73" customWidth="1"/>
+    <col min="7" max="7" width="11.46484375" style="73" customWidth="1"/>
+    <col min="8" max="8" width="32.3984375" style="73" customWidth="1"/>
+    <col min="9" max="9" width="16" style="73" customWidth="1"/>
+    <col min="10" max="10" width="6.9296875" style="73" customWidth="1"/>
+    <col min="11" max="11" width="20.265625" style="73"/>
+    <col min="12" max="12" width="4.06640625" style="73" customWidth="1"/>
+    <col min="13" max="13" width="13.1328125" style="73" customWidth="1"/>
+    <col min="14" max="14" width="9.06640625" style="73" customWidth="1"/>
+    <col min="15" max="15" width="11.796875" style="73" customWidth="1"/>
+    <col min="16" max="16" width="21" style="73" customWidth="1"/>
+    <col min="17" max="17" width="7.9296875" style="73" customWidth="1"/>
+    <col min="18" max="18" width="16.86328125" style="73" customWidth="1"/>
+    <col min="19" max="19" width="12.1328125" style="74" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" style="75" customWidth="1"/>
+    <col min="21" max="21" width="16.1328125" style="73" customWidth="1"/>
+    <col min="22" max="22" width="5.06640625" style="73" customWidth="1"/>
+    <col min="23" max="23" width="9" style="73" customWidth="1"/>
+    <col min="24" max="24" width="9.53125" style="73" customWidth="1"/>
+    <col min="25" max="25" width="12.06640625" style="76" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" style="73" customWidth="1"/>
+    <col min="27" max="27" width="12.265625" style="73" customWidth="1"/>
+    <col min="28" max="28" width="6.9296875" style="73" customWidth="1"/>
+    <col min="29" max="29" width="14.19921875" style="73" customWidth="1"/>
+    <col min="30" max="30" width="9.33203125" style="76" customWidth="1"/>
+    <col min="31" max="31" width="11.265625" style="73" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" style="73" customWidth="1"/>
+    <col min="33" max="33" width="13.1328125" style="77" customWidth="1"/>
+    <col min="34" max="16384" width="20.265625" style="73"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="79" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="81" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="118" t="s">
-        <v>154</v>
+      <c r="D5" s="83" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="119" t="s">
+      <c r="E8" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="119" t="s">
+      <c r="F8" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="119" t="s">
+      <c r="G8" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="119" t="s">
+      <c r="H8" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="121" t="s">
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="M8" s="122" t="s">
+      <c r="M8" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="N8" s="123" t="s">
+      <c r="N8" s="88" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="124"/>
-      <c r="C9" s="124" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="126" t="s">
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
     </row>
     <row r="10" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="127">
+      <c r="B10" s="92">
         <v>1</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="127" t="s">
+      <c r="E10" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="129" t="str">
+      <c r="F10" s="94" t="str">
         <f>CONCATENATE(D10,"-",E10)</f>
         <v>VBAP-VBELN</v>
       </c>
-      <c r="G10" s="129"/>
-      <c r="H10" s="127" t="s">
+      <c r="G10" s="94"/>
+      <c r="H10" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="130"/>
-      <c r="K10" s="115" t="s">
+      <c r="I10" s="95"/>
+      <c r="K10" s="80" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="127">
+      <c r="B11" s="92">
         <v>2</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="129" t="str">
+      <c r="F11" s="94" t="str">
         <f t="shared" ref="F11:F37" si="0">CONCATENATE(D11,"-",E11)</f>
         <v>VBAP-POSNR</v>
       </c>
-      <c r="G11" s="129"/>
-      <c r="H11" s="127"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="92"/>
     </row>
     <row r="12" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="127">
+      <c r="B12" s="92">
         <v>3</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="127" t="s">
+      <c r="D12" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="129" t="str">
+      <c r="F12" s="94" t="str">
         <f t="shared" si="0"/>
         <v>VBAK-KUNNR</v>
       </c>
-      <c r="G12" s="129"/>
-      <c r="H12" s="127" t="s">
+      <c r="G12" s="94"/>
+      <c r="H12" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="130"/>
-      <c r="K12" s="118" t="s">
+      <c r="I12" s="95"/>
+      <c r="K12" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="L12" s="130"/>
-      <c r="M12" s="132" t="s">
+      <c r="L12" s="95"/>
+      <c r="M12" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="N12" s="133" t="s">
+      <c r="N12" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="O12" s="133" t="s">
+      <c r="O12" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="P12" s="133" t="s">
+      <c r="P12" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="Q12" s="133" t="s">
+      <c r="Q12" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="R12" s="133" t="s">
+      <c r="R12" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="S12" s="134" t="s">
-        <v>129</v>
-      </c>
-      <c r="T12" s="135" t="s">
-        <v>131</v>
-      </c>
-      <c r="U12" s="133" t="s">
-        <v>157</v>
-      </c>
-      <c r="V12" s="133" t="s">
+      <c r="S12" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="T12" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="U12" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="V12" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="W12" s="133" t="s">
+      <c r="W12" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="X12" s="133" t="s">
+      <c r="X12" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="Y12" s="136" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z12" s="133" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA12" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB12" s="133" t="s">
+      <c r="Y12" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z12" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA12" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB12" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="AC12" s="133" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD12" s="136" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE12" s="133" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF12" s="137" t="s">
+      <c r="AC12" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD12" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE12" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF12" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG12" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="AG12" s="138" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="13" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="127">
+      <c r="B13" s="92">
         <v>4</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="127" t="s">
+      <c r="D13" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="127" t="s">
+      <c r="E13" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="129" t="str">
+      <c r="F13" s="94" t="str">
         <f t="shared" si="0"/>
         <v>KNA1-NAME1</v>
       </c>
-      <c r="G13" s="129"/>
-      <c r="H13" s="127"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="199" t="s">
+      <c r="G13" s="94"/>
+      <c r="H13" s="92"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="152" t="s">
+        <v>179</v>
+      </c>
+      <c r="N13" s="152" t="s">
         <v>180</v>
       </c>
-      <c r="N13" s="199" t="s">
-        <v>181</v>
-      </c>
-      <c r="O13" s="199" t="s">
+      <c r="O13" s="152" t="s">
+        <v>182</v>
+      </c>
+      <c r="P13" s="153" t="s">
         <v>183</v>
       </c>
-      <c r="P13" s="200" t="s">
+      <c r="Q13" s="152" t="s">
         <v>184</v>
       </c>
-      <c r="Q13" s="199" t="s">
-        <v>185</v>
-      </c>
-      <c r="R13" s="200" t="s">
+      <c r="R13" s="153" t="s">
+        <v>186</v>
+      </c>
+      <c r="S13" s="154">
+        <v>980</v>
+      </c>
+      <c r="T13" s="155">
+        <v>0</v>
+      </c>
+      <c r="U13" s="155">
+        <v>0</v>
+      </c>
+      <c r="V13" s="152" t="s">
         <v>187</v>
       </c>
-      <c r="S13" s="201">
+      <c r="W13" s="156">
+        <v>17.55</v>
+      </c>
+      <c r="X13" s="152" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y13" s="157">
+        <v>17199</v>
+      </c>
+      <c r="Z13" s="152" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13" s="158" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB13" s="158" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC13" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD13" s="105">
         <v>980</v>
       </c>
-      <c r="T13" s="202">
-        <v>0</v>
-      </c>
-      <c r="U13" s="202">
-        <v>0</v>
-      </c>
-      <c r="V13" s="199" t="s">
-        <v>188</v>
-      </c>
-      <c r="W13" s="203">
-        <v>17.55</v>
-      </c>
-      <c r="X13" s="199" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y13" s="204">
+      <c r="AE13" s="106">
+        <v>13230</v>
+      </c>
+      <c r="AF13" s="158" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG13" s="159">
         <v>17199</v>
       </c>
-      <c r="Z13" s="199" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA13" s="205" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB13" s="205" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC13" s="139" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD13" s="140">
-        <v>980</v>
-      </c>
-      <c r="AE13" s="141">
-        <v>13230</v>
-      </c>
-      <c r="AF13" s="205" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG13" s="206">
-        <v>17199</v>
-      </c>
     </row>
     <row r="14" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="127">
+      <c r="B14" s="92">
         <v>5</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="D14" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="127" t="s">
+      <c r="E14" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="129" t="str">
+      <c r="F14" s="94" t="str">
         <f t="shared" si="0"/>
         <v>VBAP-MATNR</v>
       </c>
-      <c r="G14" s="129"/>
-      <c r="H14" s="127" t="s">
+      <c r="G14" s="94"/>
+      <c r="H14" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="I14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="188" t="s">
-        <v>180</v>
-      </c>
-      <c r="N14" s="188" t="s">
+      <c r="I14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="141" t="s">
+        <v>179</v>
+      </c>
+      <c r="N14" s="141" t="s">
+        <v>181</v>
+      </c>
+      <c r="O14" s="141" t="s">
         <v>182</v>
       </c>
-      <c r="O14" s="188" t="s">
+      <c r="P14" s="142" t="s">
         <v>183</v>
       </c>
-      <c r="P14" s="189" t="s">
+      <c r="Q14" s="141" t="s">
         <v>184</v>
       </c>
-      <c r="Q14" s="188" t="s">
+      <c r="R14" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="R14" s="189" t="s">
-        <v>186</v>
-      </c>
-      <c r="S14" s="190">
+      <c r="S14" s="143">
         <v>20</v>
       </c>
-      <c r="T14" s="194">
+      <c r="T14" s="147">
         <v>0</v>
       </c>
-      <c r="U14" s="194">
+      <c r="U14" s="147">
         <v>0</v>
       </c>
-      <c r="V14" s="188" t="s">
+      <c r="V14" s="141" t="s">
+        <v>187</v>
+      </c>
+      <c r="W14" s="144">
+        <v>0</v>
+      </c>
+      <c r="X14" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="W14" s="191">
+      <c r="Y14" s="145">
         <v>0</v>
       </c>
-      <c r="X14" s="188" t="s">
+      <c r="Z14" s="141" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="Y14" s="192">
+      <c r="AB14" s="146" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC14" s="148" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD14" s="149">
+        <v>20</v>
+      </c>
+      <c r="AE14" s="150">
+        <v>270</v>
+      </c>
+      <c r="AF14" s="146" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG14" s="151">
         <v>0</v>
       </c>
-      <c r="Z14" s="188" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA14" s="193" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB14" s="193" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC14" s="195" t="s">
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B15" s="92">
+        <v>6</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="94" t="str">
+        <f>CONCATENATE(D15,"-",E15)</f>
+        <v>MAKT-ARKTX</v>
+      </c>
+      <c r="G15" s="94"/>
+      <c r="H15" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="AD14" s="196">
-        <v>20</v>
-      </c>
-      <c r="AE14" s="197">
-        <v>270</v>
-      </c>
-      <c r="AF14" s="193" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG14" s="198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B15" s="127">
-        <v>6</v>
-      </c>
-      <c r="C15" s="127" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="127" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="127" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>MAKT-MAKTX</v>
-      </c>
-      <c r="G15" s="129"/>
-      <c r="H15" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="L15" s="130"/>
+      <c r="L15" s="95"/>
     </row>
     <row r="16" spans="2:33" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="127">
+      <c r="B16" s="92">
         <v>7</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="129" t="str">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="94" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="G16" s="129"/>
-      <c r="H16" s="127"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="92"/>
     </row>
     <row r="17" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="127">
+      <c r="B17" s="92">
         <v>8</v>
       </c>
-      <c r="C17" s="127" t="s">
+      <c r="C17" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="129" t="str">
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="94" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="127"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="92"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="127">
+      <c r="B18" s="92">
         <v>9</v>
       </c>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="127" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="142" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="129" t="str">
+      <c r="F18" s="94" t="str">
         <f t="shared" si="0"/>
         <v>VBAP-KWMENG</v>
       </c>
-      <c r="G18" s="129"/>
-      <c r="H18" s="127"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="92"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="127">
+      <c r="B19" s="92">
         <v>10</v>
       </c>
-      <c r="C19" s="143" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="129" t="str">
+      <c r="C19" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="94" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="G19" s="129"/>
-      <c r="H19" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="I19" s="108" t="s">
-        <v>155</v>
+      <c r="G19" s="94"/>
+      <c r="H19" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="73" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="127">
+      <c r="B20" s="92">
         <v>11</v>
       </c>
-      <c r="C20" s="143" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="129" t="str">
+      <c r="C20" s="108" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="94" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="G20" s="129"/>
-      <c r="H20" s="144" t="s">
-        <v>160</v>
-      </c>
-      <c r="I20" s="108" t="s">
-        <v>156</v>
+      <c r="G20" s="94"/>
+      <c r="H20" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" s="73" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="127">
+      <c r="B21" s="92">
         <v>12</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="127" t="s">
+      <c r="D21" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="127" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="129" t="str">
+      <c r="E21" s="92" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="94" t="str">
         <f t="shared" si="0"/>
         <v>VBAP-VRKME</v>
       </c>
-      <c r="G21" s="129"/>
-      <c r="H21" s="127"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="92"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="127">
+      <c r="B22" s="92">
         <v>13</v>
       </c>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="127" t="s">
+      <c r="D22" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="129" t="str">
+      <c r="E22" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="94" t="str">
         <f t="shared" si="0"/>
         <v>VBAP-NETPR</v>
       </c>
-      <c r="G22" s="129"/>
-      <c r="H22" s="127" t="s">
-        <v>158</v>
+      <c r="G22" s="94"/>
+      <c r="H22" s="92" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="127">
+      <c r="B23" s="92">
         <v>14</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="127" t="s">
+      <c r="D23" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="145" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="129" t="str">
+      <c r="E23" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="94" t="str">
         <f t="shared" si="0"/>
         <v>VBAP-WAERK</v>
       </c>
-      <c r="G23" s="129"/>
-      <c r="H23" s="127"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="92"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="127">
+      <c r="B24" s="92">
         <v>15</v>
       </c>
-      <c r="C24" s="143" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="129" t="str">
+      <c r="C24" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="94" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="G24" s="129"/>
-      <c r="H24" s="127" t="s">
+      <c r="G24" s="94"/>
+      <c r="H24" s="92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="111">
+        <v>16</v>
+      </c>
+      <c r="C25" s="111" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="146">
-        <v>16</v>
-      </c>
-      <c r="C25" s="146" t="s">
+      <c r="D25" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="146" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="146" t="s">
+      <c r="E25" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="147" t="str">
+      <c r="F25" s="112" t="str">
         <f t="shared" si="0"/>
         <v>LIPS-VBELN</v>
       </c>
-      <c r="G25" s="147"/>
-      <c r="H25" s="146"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="111"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="148">
+      <c r="B26" s="170">
         <v>17</v>
       </c>
-      <c r="C26" s="149" t="s">
+      <c r="C26" s="173" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="170" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="170" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="148" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="148" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="150" t="str">
+      <c r="F26" s="164" t="str">
         <f t="shared" si="0"/>
         <v>MSEG-MBLNR</v>
       </c>
-      <c r="G26" s="150"/>
-      <c r="H26" s="151" t="s">
+      <c r="G26" s="164"/>
+      <c r="H26" s="167" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="171"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="168"/>
+    </row>
+    <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="171"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="168"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="171"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="168"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="171"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="168"/>
+    </row>
+    <row r="31" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="172"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="169"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="92">
+        <v>18</v>
+      </c>
+      <c r="C32" s="113" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="110" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="152"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="155"/>
-    </row>
-    <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="152"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="155"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="152"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="155"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="152"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="155"/>
-    </row>
-    <row r="31" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="156"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="159"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="127">
-        <v>18</v>
-      </c>
-      <c r="C32" s="160" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="145" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" s="125" t="str">
+      <c r="F32" s="90" t="str">
         <f t="shared" si="0"/>
         <v>MSEG-MJAHR</v>
       </c>
-      <c r="G32" s="125"/>
-      <c r="H32" s="124"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="89"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="127">
+      <c r="B33" s="92">
         <v>19</v>
       </c>
-      <c r="C33" s="160" t="s">
+      <c r="C33" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="127" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" s="129" t="str">
+      <c r="F33" s="94" t="str">
         <f t="shared" si="0"/>
         <v>MSEG-BWART</v>
       </c>
-      <c r="G33" s="129"/>
-      <c r="H33" s="127"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="92"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="127">
+      <c r="B34" s="92">
         <v>20</v>
       </c>
-      <c r="C34" s="160" t="s">
+      <c r="C34" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="127" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" s="129" t="str">
+      <c r="F34" s="94" t="str">
         <f t="shared" si="0"/>
         <v>MSEG-MENGE</v>
       </c>
-      <c r="G34" s="129"/>
-      <c r="H34" s="127"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="92"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="127">
+      <c r="B35" s="92">
         <v>21</v>
       </c>
-      <c r="C35" s="160" t="s">
+      <c r="C35" s="113" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="127" t="s">
-        <v>149</v>
-      </c>
-      <c r="F35" s="129" t="str">
+      <c r="F35" s="94" t="str">
         <f t="shared" si="0"/>
         <v>MSEG-DMBTR</v>
       </c>
-      <c r="G35" s="129"/>
-      <c r="H35" s="127"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="92"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="127">
+      <c r="B36" s="92">
         <v>22</v>
       </c>
-      <c r="C36" s="143" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="127" t="s">
+      <c r="C36" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="127" t="s">
+      <c r="E36" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="129" t="str">
+      <c r="F36" s="94" t="str">
         <f t="shared" si="0"/>
         <v>VBRP-VBELN</v>
       </c>
-      <c r="G36" s="129"/>
-      <c r="H36" s="127"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="92"/>
     </row>
     <row r="37" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="161">
+      <c r="B37" s="114">
         <v>23</v>
       </c>
-      <c r="C37" s="162" t="s">
+      <c r="C37" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="161" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="161" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="163" t="str">
+      <c r="F37" s="116" t="str">
         <f t="shared" si="0"/>
         <v>VBRP-NETWR</v>
       </c>
-      <c r="G37" s="163"/>
-      <c r="H37" s="161"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="114"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="164"/>
-      <c r="C38" s="164"/>
-      <c r="D38" s="164"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="130"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="95"/>
     </row>
     <row r="39" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="2:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="165" t="s">
+      <c r="B40" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="119"/>
+      <c r="D40" s="120"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="121" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="166"/>
-      <c r="D40" s="167"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="168" t="s">
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="123"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
-      <c r="E41" s="169"/>
-      <c r="F41" s="169"/>
-      <c r="G41" s="169"/>
-      <c r="H41" s="170"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="171" t="s">
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="125"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="124" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="125"/>
+    </row>
+    <row r="44" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="126" t="s">
         <v>166</v>
       </c>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="172"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B43" s="171" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="172"/>
-    </row>
-    <row r="44" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="173" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" s="174"/>
-      <c r="D44" s="174"/>
-      <c r="E44" s="174"/>
-      <c r="F44" s="174"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="175"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="128"/>
     </row>
     <row r="45" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="176" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
-      <c r="E46" s="177"/>
-      <c r="F46" s="177"/>
-      <c r="G46" s="177"/>
-      <c r="H46" s="178"/>
+      <c r="B46" s="129" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="131"/>
     </row>
     <row r="47" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="171" t="s">
-        <v>169</v>
-      </c>
-      <c r="C47" s="130"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="130"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="172"/>
+      <c r="B47" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="125"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B48" s="171" t="s">
-        <v>171</v>
-      </c>
-      <c r="C48" s="130"/>
-      <c r="D48" s="130"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="172"/>
+      <c r="B48" s="124" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="125"/>
     </row>
     <row r="49" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="173" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
-      <c r="E49" s="174"/>
-      <c r="F49" s="174"/>
-      <c r="G49" s="174"/>
-      <c r="H49" s="175"/>
+      <c r="B49" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="127"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="127"/>
+      <c r="G49" s="127"/>
+      <c r="H49" s="128"/>
     </row>
     <row r="50" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="51" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="179" t="s">
-        <v>153</v>
-      </c>
-      <c r="C51" s="180"/>
-      <c r="D51" s="181"/>
+      <c r="B51" s="132" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="133"/>
+      <c r="D51" s="134"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="182" t="s">
+      <c r="B52" s="135" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="136"/>
+      <c r="D52" s="137"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="85"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="138" t="s">
         <v>172</v>
       </c>
-      <c r="C52" s="183"/>
-      <c r="D52" s="184"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="120"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="185" t="s">
+      <c r="C53" s="139"/>
+      <c r="D53" s="140"/>
+    </row>
+    <row r="54" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="C53" s="186"/>
-      <c r="D53" s="187"/>
-    </row>
-    <row r="54" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="C54" s="174"/>
-      <c r="D54" s="175"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="H26:H31"/>
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="D26:D31"/>
     <mergeCell ref="E26:E31"/>
     <mergeCell ref="F26:F31"/>
-    <mergeCell ref="G26:G31"/>
-    <mergeCell ref="H26:H31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9525,7 +9576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854CC228-F11F-4373-92BF-2BE90E81CAEE}">
   <dimension ref="B1:P76"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
@@ -9541,7 +9592,7 @@
     <row r="1" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="70"/>
@@ -9552,7 +9603,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
@@ -9563,7 +9614,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
@@ -9574,7 +9625,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
@@ -9585,7 +9636,7 @@
     </row>
     <row r="6" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -9596,7 +9647,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
@@ -9627,15 +9678,15 @@
       <c r="D28" s="54"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B29" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
+      <c r="B29" s="176" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="176"/>
+      <c r="D29" s="176"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
@@ -9655,7 +9706,7 @@
     <row r="31" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C52" s="53"/>
       <c r="D52" s="53"/>
@@ -9666,7 +9717,7 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B76" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C76" s="53"/>
       <c r="D76" s="53"/>
@@ -9689,7 +9740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E40A23-D514-45F7-B675-EEA0B75403BB}">
   <dimension ref="B1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -9707,7 +9758,7 @@
     <row r="1" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="70"/>
@@ -9718,7 +9769,7 @@
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="63"/>
       <c r="D3" s="63"/>
@@ -9729,7 +9780,7 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
@@ -9740,7 +9791,7 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
@@ -9751,7 +9802,7 @@
     </row>
     <row r="6" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -9770,16 +9821,16 @@
       <c r="H7" s="55"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
+      <c r="B9" s="176" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
       <c r="Q9" s="71"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
@@ -9798,7 +9849,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
@@ -9815,7 +9866,7 @@
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C56" s="53"/>
       <c r="D56" s="53"/>
@@ -9843,8 +9894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571201C3-2F66-422E-8532-1426A8B466AD}">
   <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.35"/>
@@ -9876,10 +9927,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="180" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="190" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -9896,8 +9947,8 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="78"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="191"/>
       <c r="D4" s="4" t="s">
         <v>38</v>
       </c>
@@ -9912,8 +9963,8 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="78"/>
-      <c r="C5" s="92"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="191"/>
       <c r="D5" s="14" t="s">
         <v>35</v>
       </c>
@@ -9928,8 +9979,8 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="78"/>
-      <c r="C6" s="92"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
@@ -9944,8 +9995,8 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="78"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="192"/>
       <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
@@ -9960,8 +10011,8 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="78"/>
-      <c r="C8" s="88" t="s">
+      <c r="B8" s="181"/>
+      <c r="C8" s="187" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -9972,8 +10023,8 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="78"/>
-      <c r="C9" s="89"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="188"/>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
@@ -9985,8 +10036,8 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="79"/>
-      <c r="C10" s="90"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="189"/>
       <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
@@ -10009,37 +10060,37 @@
     </row>
     <row r="21" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="2:11" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="102" t="s">
+      <c r="C22" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="103"/>
-      <c r="E22" s="104"/>
-      <c r="H22" s="77" t="s">
+      <c r="D22" s="202"/>
+      <c r="E22" s="203"/>
+      <c r="H22" s="180" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="99" t="s">
+      <c r="I22" s="198" t="s">
         <v>81</v>
       </c>
       <c r="J22" s="43" t="s">
         <v>81</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="85"/>
+      <c r="D23" s="184"/>
       <c r="E23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="100"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="199"/>
       <c r="J23" s="44" t="s">
         <v>83</v>
       </c>
@@ -10048,68 +10099,68 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="78"/>
-      <c r="C24" s="94" t="s">
+      <c r="B24" s="181"/>
+      <c r="C24" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="95"/>
+      <c r="D24" s="194"/>
       <c r="E24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="78"/>
-      <c r="I24" s="100"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="199"/>
       <c r="J24" s="45" t="s">
         <v>67</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="78"/>
-      <c r="C25" s="94" t="s">
+      <c r="B25" s="181"/>
+      <c r="C25" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="95"/>
+      <c r="D25" s="194"/>
       <c r="E25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="78"/>
-      <c r="I25" s="100"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="199"/>
       <c r="J25" s="46" t="s">
         <v>85</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="78"/>
-      <c r="C26" s="94" t="s">
+      <c r="B26" s="181"/>
+      <c r="C26" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="95"/>
+      <c r="D26" s="194"/>
       <c r="E26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="78"/>
-      <c r="I26" s="101"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="200"/>
       <c r="J26" s="47" t="s">
         <v>86</v>
       </c>
       <c r="K26" s="7"/>
     </row>
     <row r="27" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="79"/>
-      <c r="C27" s="86" t="s">
+      <c r="B27" s="182"/>
+      <c r="C27" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="87"/>
+      <c r="D27" s="186"/>
       <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="78"/>
-      <c r="I27" s="96" t="s">
+      <c r="H27" s="181"/>
+      <c r="I27" s="195" t="s">
         <v>87</v>
       </c>
       <c r="J27" s="48" t="s">
@@ -10118,62 +10169,62 @@
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H28" s="78"/>
-      <c r="I28" s="97"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="196"/>
       <c r="J28" s="49" t="s">
         <v>88</v>
       </c>
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="105" t="s">
+      <c r="C29" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="107"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="98"/>
+      <c r="D29" s="205"/>
+      <c r="E29" s="206"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="197"/>
       <c r="J29" s="50" t="s">
         <v>80</v>
       </c>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="85"/>
+      <c r="D30" s="184"/>
       <c r="E30" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="82"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B32" s="82"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="4"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="82"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="83"/>
-      <c r="C34" s="86" t="s">
+      <c r="B34" s="179"/>
+      <c r="C34" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="87"/>
+      <c r="D34" s="186"/>
       <c r="E34" s="2" t="s">
         <v>0</v>
       </c>
